--- a/data/financial_statements/soci/MCHP.xlsx
+++ b/data/financial_statements/soci/MCHP.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,144 +613,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>2073000000</v>
+        <v>2073200000</v>
       </c>
       <c r="C2">
-        <v>1964000000</v>
+        <v>1963600000</v>
       </c>
       <c r="D2">
-        <v>1844000000</v>
+        <v>1844200000</v>
       </c>
       <c r="E2">
-        <v>1758000000</v>
+        <v>1757500000</v>
       </c>
       <c r="F2">
-        <v>1650000000</v>
+        <v>1649800000</v>
       </c>
       <c r="G2">
         <v>1569400000</v>
@@ -745,23 +856,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.2564</v>
+        <v>0.2566</v>
       </c>
       <c r="C3">
-        <v>0.2514</v>
+        <v>0.2512</v>
       </c>
       <c r="D3">
-        <v>0.2569</v>
+        <v>0.257</v>
       </c>
       <c r="E3">
-        <v>0.3002</v>
+        <v>0.2998</v>
       </c>
       <c r="F3">
-        <v>0.26</v>
+        <v>0.2599</v>
       </c>
       <c r="G3">
         <v>0.1983</v>
@@ -867,23 +978,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>843000000</v>
+        <v>675300000</v>
       </c>
       <c r="C4">
-        <v>821000000</v>
+        <v>653700000</v>
       </c>
       <c r="D4">
-        <v>854000000</v>
+        <v>623800100</v>
       </c>
       <c r="E4">
-        <v>820000000</v>
+        <v>604200000</v>
       </c>
       <c r="F4">
-        <v>797000000</v>
+        <v>581500000</v>
       </c>
       <c r="G4">
         <v>561800000</v>
@@ -989,23 +1100,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1230000000</v>
+        <v>1397900000</v>
       </c>
       <c r="C5">
-        <v>1142000000</v>
+        <v>1309900000</v>
       </c>
       <c r="D5">
-        <v>990000000</v>
+        <v>1220400000</v>
       </c>
       <c r="E5">
-        <v>938000000</v>
+        <v>1153300000</v>
       </c>
       <c r="F5">
-        <v>853000000</v>
+        <v>1068300000</v>
       </c>
       <c r="G5">
         <v>1007600000</v>
@@ -1111,23 +1222,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>269000000</v>
+        <v>268600000</v>
       </c>
       <c r="C6">
         <v>269000000</v>
       </c>
       <c r="D6">
-        <v>259000000</v>
+        <v>259099900</v>
       </c>
       <c r="E6">
-        <v>245000000</v>
+        <v>245400000</v>
       </c>
       <c r="F6">
-        <v>246000000</v>
+        <v>246200000</v>
       </c>
       <c r="G6">
         <v>238400000</v>
@@ -1233,8 +1344,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>202400000</v>
@@ -1249,7 +1360,7 @@
         <v>177500000</v>
       </c>
       <c r="F7">
-        <v>180000000</v>
+        <v>179900000</v>
       </c>
       <c r="G7">
         <v>174300000</v>
@@ -1355,8 +1466,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>755099900</v>
@@ -1477,8 +1588,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>53000000</v>
@@ -1518,23 +1629,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>53300000</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>50300000</v>
       </c>
       <c r="D10">
         <v>57800000</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>62100000</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>64800000</v>
       </c>
       <c r="G10">
         <v>72300000</v>
@@ -1640,23 +1751,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>5000000</v>
+        <v>-56000000</v>
       </c>
       <c r="C11">
-        <v>-9000000</v>
+        <v>-54700000</v>
       </c>
       <c r="D11">
-        <v>26000000</v>
+        <v>-70300000</v>
       </c>
       <c r="E11">
-        <v>21000000</v>
+        <v>-73500000</v>
       </c>
       <c r="F11">
-        <v>93000000</v>
+        <v>-151500000</v>
       </c>
       <c r="G11">
         <v>-71800000</v>
@@ -1762,23 +1873,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>699000000</v>
+        <v>699100000</v>
       </c>
       <c r="C12">
-        <v>647000000</v>
+        <v>646600000</v>
       </c>
       <c r="D12">
-        <v>479000000</v>
+        <v>479200000</v>
       </c>
       <c r="E12">
-        <v>442000000</v>
+        <v>441500000</v>
       </c>
       <c r="F12">
-        <v>265000000</v>
+        <v>264800000</v>
       </c>
       <c r="G12">
         <v>297000000</v>
@@ -1884,23 +1995,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>153000000</v>
+        <v>152900000</v>
       </c>
       <c r="C13">
-        <v>139000000</v>
+        <v>139400000</v>
       </c>
       <c r="D13">
-        <v>41000000</v>
+        <v>41300000</v>
       </c>
       <c r="E13">
-        <v>89000000</v>
+        <v>88700000</v>
       </c>
       <c r="F13">
-        <v>23000000</v>
+        <v>22800000</v>
       </c>
       <c r="G13">
         <v>44200000</v>
@@ -2006,8 +2117,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>546200000</v>
@@ -2128,8 +2239,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>-100</v>
@@ -2166,8 +2277,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="AB16">
         <v>7000</v>
@@ -2186,20 +2297,20 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>546000000</v>
+        <v>546200000</v>
       </c>
       <c r="C17">
-        <v>507000000</v>
+        <v>507200000</v>
       </c>
       <c r="D17">
-        <v>438000000</v>
+        <v>437900000</v>
       </c>
       <c r="E17">
-        <v>353000000</v>
+        <v>352800000</v>
       </c>
       <c r="F17">
         <v>242000000</v>
@@ -2308,23 +2419,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="C18">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="D18">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="E18">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="F18">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="G18">
         <v>0.46</v>
@@ -2430,8 +2541,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0.98</v>
@@ -2446,7 +2557,7 @@
         <v>0.62</v>
       </c>
       <c r="F19">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
       <c r="G19">
         <v>0.445</v>
@@ -2552,23 +2663,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>552000000</v>
+        <v>551500000</v>
       </c>
       <c r="C20">
-        <v>554000000</v>
+        <v>553800000</v>
       </c>
       <c r="D20">
-        <v>556000000</v>
+        <v>552300000</v>
       </c>
       <c r="E20">
-        <v>555000000</v>
+        <v>554900000</v>
       </c>
       <c r="F20">
-        <v>551000000</v>
+        <v>551300000</v>
       </c>
       <c r="G20">
         <v>547500000</v>
@@ -2674,23 +2785,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>558000000</v>
+        <v>558300000</v>
       </c>
       <c r="C21">
-        <v>562000000</v>
+        <v>561500000</v>
       </c>
       <c r="D21">
-        <v>565000000</v>
+        <v>565900000</v>
       </c>
       <c r="E21">
-        <v>567000000</v>
+        <v>567300000</v>
       </c>
       <c r="F21">
-        <v>566000000</v>
+        <v>565900000</v>
       </c>
       <c r="G21">
         <v>565100000</v>
@@ -2796,23 +2907,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.5933</v>
+        <v>0.6743</v>
       </c>
       <c r="C22">
-        <v>0.5815</v>
+        <v>0.6671</v>
       </c>
       <c r="D22">
-        <v>0.5369</v>
+        <v>0.6618000000000001</v>
       </c>
       <c r="E22">
-        <v>0.5336</v>
+        <v>0.6562</v>
       </c>
       <c r="F22">
-        <v>0.517</v>
+        <v>0.6475</v>
       </c>
       <c r="G22">
         <v>0.642</v>
@@ -2918,20 +3029,20 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.3643</v>
+        <v>0.3642</v>
       </c>
       <c r="C23">
-        <v>0.3571</v>
+        <v>0.3572</v>
       </c>
       <c r="D23">
         <v>0.298</v>
       </c>
       <c r="E23">
-        <v>0.2929</v>
+        <v>0.293</v>
       </c>
       <c r="F23">
         <v>0.2523</v>
@@ -3040,23 +3151,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0.3372</v>
       </c>
       <c r="C24">
-        <v>0.3294</v>
+        <v>0.3293</v>
       </c>
       <c r="D24">
         <v>0.2598</v>
       </c>
       <c r="E24">
-        <v>0.2514</v>
+        <v>0.2512</v>
       </c>
       <c r="F24">
-        <v>0.1606</v>
+        <v>0.1605</v>
       </c>
       <c r="G24">
         <v>0.1892</v>
@@ -3162,20 +3273,20 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>0.2634</v>
+        <v>0.2635</v>
       </c>
       <c r="C25">
-        <v>0.2581</v>
+        <v>0.2583</v>
       </c>
       <c r="D25">
-        <v>0.2375</v>
+        <v>0.2374</v>
       </c>
       <c r="E25">
-        <v>0.2008</v>
+        <v>0.2007</v>
       </c>
       <c r="F25">
         <v>0.1467</v>
@@ -3284,23 +3395,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>1011000000</v>
+        <v>1011100000</v>
       </c>
       <c r="C26">
-        <v>944000000</v>
+        <v>964799900</v>
       </c>
       <c r="D26">
-        <v>852000000</v>
+        <v>855000200</v>
       </c>
       <c r="E26">
-        <v>815000000</v>
+        <v>829100000</v>
       </c>
       <c r="F26">
-        <v>704000000</v>
+        <v>708300000</v>
       </c>
       <c r="G26">
         <v>657100000</v>
@@ -3406,8 +3517,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>755099900</v>
@@ -3528,8 +3639,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>546200000</v>
@@ -3650,8 +3761,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="X29">
         <v>-47000</v>
@@ -3673,20 +3784,20 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>546000000</v>
+        <v>546200000</v>
       </c>
       <c r="C30">
-        <v>507000000</v>
+        <v>507200000</v>
       </c>
       <c r="D30">
-        <v>438000000</v>
+        <v>437900000</v>
       </c>
       <c r="E30">
-        <v>353000000</v>
+        <v>352800000</v>
       </c>
       <c r="F30">
         <v>242000000</v>
@@ -3795,8 +3906,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.9903999999999999</v>
@@ -3917,8 +4028,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0.9782999999999999</v>
@@ -4039,8 +4150,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="X33">
         <v>0.0053</v>
@@ -4056,8 +4167,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="X34">
         <v>0.0004</v>
@@ -4073,8 +4184,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0.9903999999999999</v>
@@ -4195,8 +4306,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>0.9782999999999999</v>
@@ -4317,8 +4428,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>558300000</v>
@@ -4439,23 +4550,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
         <v>0.4877</v>
       </c>
       <c r="C38">
-        <v>0.4807</v>
+        <v>0.4913</v>
       </c>
       <c r="D38">
-        <v>0.462</v>
+        <v>0.4636</v>
       </c>
       <c r="E38">
-        <v>0.4636</v>
+        <v>0.4717</v>
       </c>
       <c r="F38">
-        <v>0.4267</v>
+        <v>0.4293</v>
       </c>
       <c r="G38">
         <v>0.4187</v>
@@ -4561,23 +4672,23 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
         <v>0.3826</v>
       </c>
       <c r="C39">
-        <v>0.4279</v>
+        <v>0.428</v>
       </c>
       <c r="D39">
-        <v>0.4055</v>
+        <v>0.4054</v>
       </c>
       <c r="E39">
-        <v>0.4854</v>
+        <v>0.4856</v>
       </c>
       <c r="F39">
-        <v>0.3707</v>
+        <v>0.3708</v>
       </c>
       <c r="G39">
         <v>0.4014</v>
